--- a/result/log_analysis_detailed.xlsx
+++ b/result/log_analysis_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>log_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>page_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>click_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>act_type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>click_text</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -476,30 +481,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Rround</t>
         </is>
@@ -511,30 +521,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>mainTitle</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>업로드</t>
         </is>
@@ -546,32 +561,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>list_index</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
     </row>
@@ -581,32 +601,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>challengeName</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
         </is>
       </c>
     </row>
@@ -616,32 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>challengeSeq</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Optional(104)</t>
+          <t>list_index</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -651,32 +681,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>list_title</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>상세 챌린지</t>
         </is>
       </c>
     </row>
@@ -686,32 +721,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>chal_index</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>challengeName</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>업로드</t>
         </is>
       </c>
     </row>
@@ -721,32 +761,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>activeParticipantCount</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>click</t>
         </is>
       </c>
     </row>
@@ -756,172 +801,197 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>sticker</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>RECOMMEND</t>
+          <t>challengeSeq</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Optional(104)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>list_title</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>업로드</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mainTitle</t>
+          <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>chal_index</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>list_index</t>
+          <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>activeParticipantCount</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Optional(19)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>challengeName</t>
+          <t>3일차 이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>sticker</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>RECOMMEND</t>
         </is>
       </c>
     </row>
@@ -931,32 +1001,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>challengeSeq</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Optional(104)</t>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rround</t>
         </is>
       </c>
     </row>
@@ -966,30 +1041,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>list_title</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>mainTitle</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>업로드</t>
         </is>
@@ -1001,32 +1081,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>chal_index</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1121,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>activeParticipantCount</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
         </is>
       </c>
     </row>
@@ -1071,165 +1161,235 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>challenge/home</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>상세 챌린지</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>이런 챌린지 어때요?</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sticker</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RECOMMEND</t>
+          <t>list_index</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>상세 챌린지</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>상세 챌린지</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>상세 챌린지</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>activeParticipantCount</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>challengeName</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>업로드</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>상세 챌린지</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>totalFeedCount</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Optional(31)</t>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>상세 챌린지</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>profileSeq</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Optional(627)</t>
+          <t>challengeSeq</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Optional(104)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>challenge/home</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>상세 챌린지</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">challengeName </t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>list_title</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>업로드</t>
         </is>
@@ -1237,565 +1397,1607 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>challenge/home</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>상세 챌린지</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>chal_index</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>challenge/home</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>상세 챌린지</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cta_text</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>인증하기</t>
+          <t>activeParticipantCount</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Optional(19)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>challenge/home</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>상세 챌린지</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>click</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>goodsId</t>
+          <t>이런 챌린지 어때요?</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2655, 660</t>
+          <t>sticker</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>RECOMMEND</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>prd_name</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>정관장 홍삼대정 (홍삼대정 250g * 3병), [델리스푼] 브이핏 프리미엄 이너뷰티</t>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>activeParticipantCount</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Optional(19)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:55</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>cta_text</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>상품 선택 완료</t>
+          <t>totalFeedCount</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Optional(31)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>popup_title</t>
-        </is>
-      </c>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>인증 완료!</t>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>popup_msg</t>
-        </is>
-      </c>
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
+          <t>profileSeq</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Optional(627)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>2025-06-04 21:45:55</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>profileSeq</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Optional(627)</t>
+          <t xml:space="preserve">challengeName </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>업로드</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>2025-06-04 21:45:59</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>CTA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">challengeName </t>
+          <t>클릭 텍스트</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CTA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>2025-06-04 21:45:59</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>CTA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>activeParticipantCount</t>
+          <t>클릭 텍스트</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Optional(20)</t>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>2025-06-04 21:45:59</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>CTA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>totalFeedCount</t>
+          <t>클릭 텍스트</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Optional(32)</t>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>2025-06-04 21:45:59</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>CTA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>클릭 텍스트</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:59</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>챌린지 상세</t>
+          <t>challenge/challenge_detail</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>CTA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>클릭 텍스트</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:45:59</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>챌린지 상세</t>
+          <t>challenge/challenge_detail</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>CTA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>클릭 텍스트</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>popup_msg</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
+          <t>cta_text</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>인증하기</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>2025-06-04 21:46:16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>챌린지 상세</t>
+          <t>challenge/challenge_detail</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>popup_click</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>클릭 텍스트</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>cta_text</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>goodsId</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2655, 660</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>prd_name</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>정관장 홍삼대정 (홍삼대정 250g * 3병), [델리스푼] 브이핏 프리미엄 이너뷰티</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>상품 태그</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>cta_text</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>상품 선택 완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>popup_title</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>인증 완료!</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>popup_imp</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>popup_msg</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>profileSeq</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Optional(627)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">challengeName </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>업로드</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>activeParticipantCount</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Optional(20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>totalFeedCount</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Optional(32)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:21</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>8</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>챌린지 상세</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>popup_click</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>클릭 텍스트</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>popup_msg</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>8</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>cta_text</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>확인</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>8</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-06-04 21:46:25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>challenge/challenge_detail</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>챌린지 상세</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>popup_click</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>클릭 텍스트</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>popup_title</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>인증 완료!</t>
         </is>

--- a/result/log_analysis_detailed.xlsx
+++ b/result/log_analysis_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>click_type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>act_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,29 +481,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>channel</t>
@@ -521,37 +513,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:58</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>mainTitle</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
     </row>
@@ -561,587 +545,483 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:58</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3일차 이런 챌린지 어때요?</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/name</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/name</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>list_index</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>onboarding/name</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:28:59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/name</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/birth</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>challengeName</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/birth</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>onboarding/birth</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/birth</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>challengeSeq</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Optional(104)</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/terms</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>list_title</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/terms</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>chal_index</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>onboarding/terms</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/terms</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>activeParticipantCount</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3일차 이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sticker</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>RECOMMEND</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>mainTitle</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1151,390 +1031,342 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>인증하기</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>인증하기</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>click</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>list_index</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>인증하기</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_bridge</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>이런 챌린지 어때요?</t>
+          <t>인증하기</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>challengeName</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>인증하기</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:04</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_number</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_number</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>challengeSeq</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Optional(104)</t>
+          <t>onboarding/auth_number</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>onboarding/auth_number</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>list_title</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>splash</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>chal_index</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>splash</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>activeParticipantCount</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>splash</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>challenge/home</t>
+          <t>splash</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>상세 챌린지</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>이런 챌린지 어때요?</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sticker</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>RECOMMEND</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/terms</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
@@ -1549,263 +1381,271 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/terms</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>activeParticipantCount</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Optional(19)</t>
+          <t>onboarding/terms</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/terms</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>totalFeedCount</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Optional(31)</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/phone_number</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/phone_number</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>onboarding/phone_number</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>onboarding/phone_number</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>profileSeq</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Optional(627)</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:55</t>
+          <t>2025-06-05 15:29:18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>onboarding/start</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>로그인방법</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>kakao</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">challengeName </t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>업로드</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/start</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>로그인방법</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>kakao</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>onboarding/start</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/start</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>로그인방법</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>kakao</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1821,271 +1661,247 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/start</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>로그인방법</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>kakao</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>kakao</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/start</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CTA</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>로그인방법</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>kakao</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>로그인방법</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CTA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-04 21:45:59</t>
+          <t>2025-06-05 15:29:23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CTA</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cta_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>인증하기</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>onboarding/carrier</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2095,911 +1911,423 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>goodsId</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2655, 660</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>prd_name</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>정관장 홍삼대정 (홍삼대정 250g * 3병), [델리스푼] 브이핏 프리미엄 이너뷰티</t>
+          <t>발견</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>탭</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:16</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>상품 태그</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>popup_click</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>클릭 텍스트</t>
+          <t>발견</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cta_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>상품 선택 완료</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>탭</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>발견</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>탭</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>발견</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>발견</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>탭</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>발견</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>popup_imp</t>
+          <t>탭</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>popup_title</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>인증 완료!</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>popup_imp</t>
-        </is>
-      </c>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>popup_msg</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
+          <t>life/feed/discovery</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-04 21:46:21</t>
+          <t>2025-06-05 15:29:20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
+          <t>life/feed/discovery</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>profileSeq</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Optional(627)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>act_type</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">challengeName </t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>업로드</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>activeParticipantCount</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Optional(20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>totalFeedCount</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Optional(32)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Rround</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:21</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>page_id</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>8</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>page_id</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>click_type</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>8</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Rround</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>8</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>click_text</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>8</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>act_type</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>8</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>popup_msg</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>다른 챌린지도 인증하고베스트 챌린저에 도전하세요 👏</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>8</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>cta_text</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>확인</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>8</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2025-06-04 21:46:25</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>challenge/challenge_detail</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>챌린지 상세</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>popup_click</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>클릭 텍스트</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>popup_title</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>인증 완료!</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>

--- a/result/log_analysis_detailed.xlsx
+++ b/result/log_analysis_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:58</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -513,29 +513,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:58</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
@@ -545,145 +545,145 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:58</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:59</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>onboarding/name</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>impression</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:59</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>onboarding/name</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>onboarding/name</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-05 15:28:59</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>onboarding/name</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>impression_type</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>검색 창</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:01</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>onboarding/birth</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -701,240 +701,240 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:01</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>onboarding/birth</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>onboarding/birth</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:01</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>onboarding/birth</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>impression</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>banner_text</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>______포인트 12,500원 놓치고 있어요!___전국 날씨특파원, 오늘 날씨는?___여름맞이 체력 증진! 오운완 챌린지___</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>banner_position</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>라이프 메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>impression_type</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -946,84 +946,68 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>page_id</t>
@@ -1031,39 +1015,31 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>act_type</t>
@@ -1071,139 +1047,123 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>인증하기</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:03</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>onboarding/auth_bridge</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>인증하기</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>인증하기</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:04</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>onboarding/auth_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:04</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>onboarding/auth_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1215,27 +1175,27 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>onboarding/auth_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:04</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>onboarding/auth_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1247,123 +1207,123 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:13</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>splash</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>swipe_area</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:13</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>splash</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>swipe_direct</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>splash</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:13</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>splash</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:17</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1381,489 +1341,441 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:17</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:17</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>onboarding/terms</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:19</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>onboarding/phone_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>swipe</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:19</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>onboarding/phone_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>swipe_area</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>onboarding/phone_number</t>
+          <t>메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:19</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>onboarding/phone_number</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>swipe_direct</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:18</t>
+          <t>2025-06-09 19:48:18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>로그인방법</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>kakao</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:18</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>로그인방법</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>kakao</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:18</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>로그인방법</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>kakao</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:18</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>로그인방법</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>kakao</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kakao</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:18</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>onboarding/start</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>로그인방법</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>kakao</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>로그인방법</t>
+          <t>swipe</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:23</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>swipe_area</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:23</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>swipe_direct</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:23</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>onboarding/carrier</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>channel</t>
@@ -1877,256 +1789,208 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>발견</t>
+          <t>swipe</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>swipe_area</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>swipe_direct</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:48:19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+          <t>swipe</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2134,39 +1998,31 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2174,39 +2030,31 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>발견</t>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/800</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2214,120 +2062,2345 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>tab_name</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t xml:space="preserve">상품상세
+</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-05 15:29:20</t>
+          <t>2025-06-09 19:51:49</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>ecommerce-dev/product/detail/800</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>prd_code</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>prd_name</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>여성용 스킨핏 50수 투톤 모달 팬티 5P SET</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>prd_price_origin</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>20,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>20,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>prd_disc_rate</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>prd_review_cnt</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>prd_review_score</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>prd_tag</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>#여성팬티___#50수팬티___#숙녀팬티___#여자팬티___#팬티세트___#모달팬티___#투톤팬티___#팬티</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:49</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/800</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>act_type</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>prd_code</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>prd_name</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>여성용 스킨핏 50수 투톤 모달 팬티 5P SET</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>prd_brand</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>마이그스토어</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>20,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>prd_is_ad</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:51</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>module_id</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>C-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>module_order</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>module_name</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>commerce-category-ranking</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:53</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>상품 더보기</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>pageview</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/category/detail/543</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ctgr_id</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:51:55</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/category/detail/543</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>12</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>12</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>12</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>12</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>12</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>12</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>12</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>module_id</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>C-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>12</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>module_order</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>12</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>prd_order</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>prd_code</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>12</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>prd_name</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>prd_brand</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>마이그스토어</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>12</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>96,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>12</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>prd_is_ad</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>12</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>el_order</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>12</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>module_name</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>commerce-category-ranking</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>12</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>13</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>13</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>13</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>prd_code</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>13</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>prd_price_origin</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>96,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>13</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>86,400원</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>13</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>prd_disc_rate</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>13</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>prd_review_cnt</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>13</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>prd_review_score</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>13</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>prd_tag</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>#프로바이오틱스___#식품___#영양제___#드시모네___#베이비스텝___#박스___#생유산균___#건강식품</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-06-09 19:53:20</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/1030</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>iOS</t>
         </is>
       </c>
     </row>

--- a/result/log_analysis_detailed.xlsx
+++ b/result/log_analysis_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,19 +619,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>scroll_rate</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>impression_type</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>검색 창</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,11 +683,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>channel</t>
@@ -705,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -715,11 +723,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>page_url</t>
@@ -737,7 +753,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -747,11 +763,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>page_id</t>
@@ -769,7 +793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -779,11 +803,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>act_type</t>
@@ -791,7 +823,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>click</t>
         </is>
       </c>
     </row>
@@ -801,7 +833,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,19 +843,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>banner_text</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>______포인트 12,500원 놓치고 있어요!___전국 날씨특파원, 오늘 날씨는?___여름맞이 체력 증진! 오운완 챌린지___</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
@@ -833,7 +873,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,19 +883,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>banner_position</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>라이프 메인 상단 카드 배너</t>
+          <t>상품</t>
         </is>
       </c>
     </row>
@@ -865,7 +913,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,19 +923,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>module_id</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>C-3</t>
         </is>
       </c>
     </row>
@@ -897,7 +953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,29 +963,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>impression_type</t>
+          <t>module_order</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,29 +1003,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>prd_order</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,29 +1043,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,29 +1083,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>prd_name</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,29 +1123,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>prd_brand</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>마이그스토어</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:14</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,29 +1163,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>prd_price_origin</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>40,000원</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,29 +1203,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>prd_price_final</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>20,000원</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,29 +1243,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>prd_disc_rate</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,29 +1283,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>prd_is_ad</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,29 +1323,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>el_order</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,29 +1363,37 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>swipe_area</t>
+          <t>module_name</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>commerce-category-ranking</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:40</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,413 +1403,421 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>swipe_direct</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:41</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>swipe_area</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>swipe_direct</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:18</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:08:44</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1675,29 +1827,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>swipe_area</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1707,29 +1867,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>swipe_direct</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1739,29 +1907,37 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1771,29 +1947,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1803,29 +1987,37 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1835,29 +2027,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>뉴스</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1867,29 +2067,37 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>module_id</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>swipe</t>
+          <t>D-1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1899,29 +2107,37 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>swipe_area</t>
+          <t>module_order</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1931,29 +2147,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>swipe_direct</t>
+          <t>el_order</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-09 19:48:19</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1963,34 +2187,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>module_name</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>news-card</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1998,31 +2230,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>article_title</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2030,31 +2270,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/800</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2066,27 +2314,27 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2098,27 +2346,27 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>https://life-dev.hectoinnovation.co.kr/news/detail/10736</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2130,28 +2378,27 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>tab_name</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">상품상세
-</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2163,27 +2410,27 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>prd_code</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2195,27 +2442,27 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>prd_name</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>여성용 스킨핏 50수 투톤 모달 팬티 5P SET</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2223,31 +2470,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>prd_price_origin</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>20,000원</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2255,31 +2510,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>prd_price_final</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>20,000원</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2287,31 +2550,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>prd_disc_rate</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2319,31 +2590,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>prd_review_cnt</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2351,31 +2630,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>prd_review_score</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2383,31 +2670,39 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>prd_tag</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>#여성팬티___#50수팬티___#숙녀팬티___#여자팬티___#팬티세트___#모달팬티___#투톤팬티___#팬티</t>
+          <t>상품</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:49</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/800</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2415,26 +2710,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>module_id</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>C-3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2449,28 +2752,32 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>module_order</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2485,28 +2792,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>prd_order</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,28 +2832,32 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2557,28 +2872,32 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>prd_name</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2593,28 +2912,32 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>prd_brand</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
+          <t>마이그스토어</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2629,28 +2952,32 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>prd_code</t>
+          <t>prd_price_origin</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>40,000원</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2665,28 +2992,32 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>prd_name</t>
+          <t>prd_price_final</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>여성용 스킨핏 50수 투톤 모달 팬티 5P SET</t>
+          <t>20,000원</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2701,28 +3032,32 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>prd_brand</t>
+          <t>prd_disc_rate</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>마이그스토어</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2737,28 +3072,32 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>prd_price_final</t>
+          <t>prd_is_ad</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>20,000원</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2773,28 +3112,32 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>prd_is_ad</t>
+          <t>el_order</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:51</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2809,28 +3152,32 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>module_name</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>commerce-category-ranking</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2843,30 +3190,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2879,30 +3230,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2915,30 +3270,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2951,30 +3310,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2987,30 +3350,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3023,30 +3390,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>module_id</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>C-3</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3059,30 +3430,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>module_order</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>뉴스</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3095,30 +3470,34 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>module_name</t>
+          <t>module_id</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>commerce-category-ranking</t>
+          <t>D-1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:53</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3131,227 +3510,263 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>상품 더보기</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>module_order</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>el_order</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>module_name</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://ecommerce-dev.hectoinnovation.co.kr/category/detail/543</t>
+          <t>news-card</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>article_title</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:53</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[OTT랭킹] '찰떡 캐스팅' 증명한 '광장'…K무비 침체 장기화</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ctgr_id</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-06-09 19:51:55</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ecommerce-dev/category/detail/543</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>https://life-dev.hectoinnovation.co.kr/news/detail/10736</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3359,39 +3774,31 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>상품</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3399,39 +3806,31 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>상품</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:54</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>life-dev/news/detail/10736</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3439,34 +3838,26 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>상품</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>life-dev/main</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3486,27 +3877,27 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3526,27 +3917,27 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3566,27 +3957,27 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>life-dev/main</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3606,27 +3997,27 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>module_id</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>C-3</t>
+          <t>click</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3646,27 +4037,27 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>module_order</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3686,27 +4077,27 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>prd_order</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>상품</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3726,27 +4117,27 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>prd_code</t>
+          <t>module_id</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>C-3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3766,27 +4157,27 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>prd_name</t>
+          <t>module_order</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3806,27 +4197,27 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>prd_brand</t>
+          <t>prd_order</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>마이그스토어</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3846,27 +4237,27 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>prd_price_final</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>96,000원</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3886,27 +4277,27 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>prd_is_ad</t>
+          <t>prd_name</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3926,27 +4317,27 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>el_order</t>
+          <t>prd_brand</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>마이그스토어</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3966,27 +4357,27 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>module_name</t>
+          <t>prd_price_origin</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>commerce-category-ranking</t>
+          <t>40,000원</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:19</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4006,192 +4397,232 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>드시모네 베이비스텝2 100억 생유산균 2박스</t>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>os_name</t>
+          <t>prd_price_final</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>iOS</t>
+          <t>20,000원</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>prd_disc_rate</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rround</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>prd_is_ad</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/1030</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>el_order</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>module_name</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>commerce-category-ranking</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:56</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>life-dev/main</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>prd_code</t>
+          <t>os_name</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>iOS</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4203,27 +4634,27 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>prd_price_origin</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>96,000원</t>
+          <t>Rround</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4235,27 +4666,27 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>prd_price_final</t>
+          <t>page_url</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>86,400원</t>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4267,27 +4698,27 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>prd_disc_rate</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4299,27 +4730,27 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>prd_review_cnt</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pageview</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4331,27 +4762,27 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>prd_review_score</t>
+          <t>prd_code</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4363,27 +4794,27 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>prd_tag</t>
+          <t>prd_price_origin</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>#프로바이오틱스___#식품___#영양제___#드시모네___#베이비스텝___#박스___#생유산균___#건강식품</t>
+          <t>40,000원</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-06-09 19:53:20</t>
+          <t>2025-06-10 10:09:57</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ecommerce-dev/product/detail/1030</t>
+          <t>ecommerce-dev/product/detail/3086</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4395,10 +4826,1291 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>18,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>11</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:09:57</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>prd_disc_rate</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:09:57</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>prd_review_cnt</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>11</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:09:57</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>prd_review_score</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>11</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:09:57</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>prd_tag</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>#포도씨유___#올리브유___#소르바스___#압착오일___#엑스트라버진___#해바라기유___#카놀라유___#유기농</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>11</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:09:57</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>os_name</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://ecommerce-dev.hectoinnovation.co.kr/product/detail/3086</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>tab_name</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상품상세
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>prd_code</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>3086</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>12</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>prd_name</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>(스페인직수입)소르바스 포도씨유500ml 1P(스페인직수입)소르바스 포도씨유500ml 1P</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>12</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>prd_price_origin</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>40,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>prd_price_final</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>20,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>12</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>prd_disc_rate</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>prd_review_cnt</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>prd_review_score</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>prd_tag</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>#포도씨유___#올리브유___#소르바스___#압착오일___#엑스트라버진___#해바라기유___#카놀라유___#유기농</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:37</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ecommerce-dev/product/detail/3086</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>13</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>13</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>13</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>13</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>13</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>scroll_rate</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>13</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:41</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Rround</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>14</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://life-dev.hectoinnovation.co.kr/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>14</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>page_id</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>14</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>act_type</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>14</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>14</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>click_type</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>module_id</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>D-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>14</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>module_order</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>14</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>el_order</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>14</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>module_name</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>news-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>14</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>article_title</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>14</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-06-10 10:10:42</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>life-dev/main</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>뉴스</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>K뮤지컬 통했다…'어쩌면 해피엔딩', 토니상 극본상·음악상 수상</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>os_name</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
         <is>
           <t>iOS</t>
         </is>
